--- a/Hometask Data Testing approaches/TestData/RAW/Forecast_20230308 dublicates.xlsx
+++ b/Hometask Data Testing approaches/TestData/RAW/Forecast_20230308 dublicates.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Anastasiya_Viktarovi\Documents\GitHub\Data-Quality-Engineering-Mentoring-Program-Intermediate-Level-9\Hometask Data Testing approaches\TestData\RAW\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A7765FE-C294-4688-831D-7A49C024074B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D82DA3C5-54F5-4910-A529-FDC3007BF8DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{ECB2EC87-1334-4B9F-A6C7-9C0FA6DE77E1}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{ECB2EC87-1334-4B9F-A6C7-9C0FA6DE77E1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$G$9</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$G$3</definedName>
   </definedNames>
   <calcPr calcId="179017"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="16">
   <si>
     <t>ABCD</t>
   </si>
@@ -36,28 +36,10 @@
     <t>AA.COM</t>
   </si>
   <si>
-    <t>BB.COM</t>
-  </si>
-  <si>
-    <t>CC.COM</t>
-  </si>
-  <si>
     <t>AA_1.COM</t>
   </si>
   <si>
     <t>AA_2.COM</t>
-  </si>
-  <si>
-    <t>BB_1.COM</t>
-  </si>
-  <si>
-    <t>CC_1.COM</t>
-  </si>
-  <si>
-    <t>CC_2.COM</t>
-  </si>
-  <si>
-    <t>CC_3.COM</t>
   </si>
   <si>
     <t>YEAR_MONTH</t>
@@ -100,7 +82,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -114,13 +96,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -146,7 +121,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -158,9 +133,6 @@
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -476,10 +448,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96580C22-5D92-4101-A098-8B2CFEE058DC}">
-  <dimension ref="A1:J13"/>
+  <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -496,34 +468,34 @@
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="H1" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="I1" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="J1" t="s">
         <v>13</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I1" t="s">
-        <v>18</v>
-      </c>
-      <c r="J1" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:10">
@@ -543,16 +515,16 @@
         <v>0.22800000000000001</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G2" s="3">
         <v>0.22800000000000001</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="J2" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -572,16 +544,16 @@
         <v>0.22800000000000001</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G3" s="3">
         <v>0.22700000000000001</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="J3" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -595,22 +567,22 @@
         <v>0.23100000000000001</v>
       </c>
       <c r="D4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E4" s="3">
+        <v>0.22800000000000001</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="3">
-        <v>0.24199999999999999</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>6</v>
-      </c>
       <c r="G4" s="3">
-        <v>0.24199999999999999</v>
+        <v>0.22800000000000001</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="J4" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -624,258 +596,26 @@
         <v>0.23100000000000001</v>
       </c>
       <c r="D5" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E5" s="3">
+        <v>0.22800000000000001</v>
+      </c>
+      <c r="F5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="3">
-        <v>0.13500000000000001</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>7</v>
-      </c>
       <c r="G5" s="3">
-        <v>0.13500000000000001</v>
+        <v>0.22700000000000001</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="J5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10">
-      <c r="A6" s="2">
-        <v>43586</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C6" s="3">
-        <v>0.22</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E6" s="3">
-        <v>0.20100000000000001</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G6" s="3">
-        <v>0.2</v>
-      </c>
-      <c r="H6" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="J6" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10">
-      <c r="A7" s="2">
-        <v>43586</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C7" s="3">
-        <v>0.22</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E7" s="3">
-        <v>0.20100000000000001</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G7" s="3">
-        <v>0.20200000000000001</v>
-      </c>
-      <c r="H7" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="J7" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10">
-      <c r="A8" s="2">
-        <v>43586</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C8" s="3">
-        <v>0.22</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E8" s="3">
-        <v>0.24</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="G8" s="3">
-        <v>0.24</v>
-      </c>
-      <c r="H8" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="J8" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10">
-      <c r="A9" s="2">
-        <v>43586</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C9" s="3">
-        <v>0.22</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E9" s="3">
-        <v>0.14899999999999999</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G9" s="3">
-        <v>0.14899999999999999</v>
-      </c>
-      <c r="H9" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="J9" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10">
-      <c r="A10" s="2">
-        <v>43586</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C10" s="3">
-        <v>0.22</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E10" s="3">
-        <v>0.14899999999999999</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G10" s="3">
-        <v>0.14899999999999999</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="J10" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10">
-      <c r="A11" s="2">
-        <v>43586</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C11" s="3">
-        <v>0.22</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E11" s="3">
-        <v>0.14899999999999999</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G11" s="3">
-        <v>0.14899999999999999</v>
-      </c>
-      <c r="H11" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="J11" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10">
-      <c r="A12" s="2">
-        <v>43556</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C12" s="3">
-        <v>0.23100000000000001</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E12" s="3">
-        <v>0.22800000000000001</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G12" s="3">
-        <v>0.22800000000000001</v>
-      </c>
-      <c r="H12" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="J12" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10">
-      <c r="A13" s="2">
-        <v>43556</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C13" s="3">
-        <v>0.23100000000000001</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E13" s="3">
-        <v>0.22800000000000001</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G13" s="3">
-        <v>0.22700000000000001</v>
-      </c>
-      <c r="H13" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="J13" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G9" xr:uid="{E2C34D81-9D94-43E0-BE18-075AEEFA0558}"/>
+  <autoFilter ref="A1:G3" xr:uid="{E2C34D81-9D94-43E0-BE18-075AEEFA0558}"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
